--- a/output/boxplot_germany_historic_table.xlsx
+++ b/output/boxplot_germany_historic_table.xlsx
@@ -675,7 +675,7 @@
         <v>0.4720279720279721</v>
       </c>
       <c r="K5" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6">
@@ -722,7 +722,7 @@
         <v>0.6286907536907538</v>
       </c>
       <c r="K6" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7">
@@ -816,7 +816,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="K8" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9">
@@ -850,7 +850,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">t / cap /year </t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -863,7 +863,7 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="K9" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10">
@@ -897,7 +897,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">t / cap /year </t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -910,7 +910,7 @@
         <v>0.71875</v>
       </c>
       <c r="K10" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11">
@@ -957,7 +957,7 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="K11" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12">
@@ -1051,7 +1051,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="K13" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14">
@@ -1098,7 +1098,7 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="K14" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>t/ cap /year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1145,7 +1145,7 @@
         <v>0.5121951219512195</v>
       </c>
       <c r="K15" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16">
@@ -1192,7 +1192,7 @@
         <v>0.5609756097560976</v>
       </c>
       <c r="K16" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17">
@@ -1380,7 +1380,7 @@
         <v>0.6061126373626373</v>
       </c>
       <c r="K20" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21">
@@ -1427,7 +1427,7 @@
         <v>0.860576923076923</v>
       </c>
       <c r="K21" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22">
@@ -1521,7 +1521,7 @@
         <v>0.3502713250950479</v>
       </c>
       <c r="K23" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24">
@@ -1568,7 +1568,7 @@
         <v>0.9760770092236112</v>
       </c>
       <c r="K24" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25">
@@ -1615,7 +1615,7 @@
         <v>1.047593642004681</v>
       </c>
       <c r="K25" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26">
@@ -1709,7 +1709,7 @@
         <v>0.718698918214043</v>
       </c>
       <c r="K27" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28">
@@ -1803,7 +1803,7 @@
         <v>0.8301559314562785</v>
       </c>
       <c r="K29" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30">
@@ -1897,7 +1897,7 @@
         <v>0.9036988202721624</v>
       </c>
       <c r="K31" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32">
@@ -1991,7 +1991,7 @@
         <v>0.9252857315202173</v>
       </c>
       <c r="K33" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34">
@@ -2132,7 +2132,7 @@
         <v>0.5949222202692372</v>
       </c>
       <c r="K36" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37">
@@ -2269,7 +2269,7 @@
         <v>0.7444929326705145</v>
       </c>
       <c r="K39" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40">
@@ -2363,7 +2363,7 @@
         <v>0.7977973568281939</v>
       </c>
       <c r="K41" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42">
@@ -2547,7 +2547,7 @@
         <v>0.907488986784141</v>
       </c>
       <c r="K45" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46">
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48">
@@ -2688,7 +2688,7 @@
         <v>5.055</v>
       </c>
       <c r="K48" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49">
@@ -2735,7 +2735,7 @@
         <v>0.11995964351774</v>
       </c>
       <c r="K49" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50">
@@ -2782,7 +2782,7 @@
         <v>0.2756880733944954</v>
       </c>
       <c r="K50" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51">
@@ -2829,7 +2829,7 @@
         <v>1.089449541284404</v>
       </c>
       <c r="K51" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52">
@@ -2957,20 +2957,20 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal / year / cap</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>43.27</v>
+        <v>15793.55</v>
       </c>
       <c r="I54" t="n">
-        <v>332.85</v>
+        <v>121490.25</v>
       </c>
       <c r="J54" t="n">
         <v>0.1299984978218417</v>
       </c>
       <c r="K54" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55">
@@ -3008,16 +3008,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>6.32</v>
+        <v>2305.86</v>
       </c>
       <c r="I55" t="n">
-        <v>332.85</v>
+        <v>121490.25</v>
       </c>
       <c r="J55" t="n">
-        <v>0.01898753192128587</v>
+        <v>0.01897979467488132</v>
       </c>
       <c r="K55" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56">
@@ -3064,7 +3064,7 @@
         <v>0.2497084290793398</v>
       </c>
       <c r="K56" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57">
@@ -3111,7 +3111,7 @@
         <v>9.988337163173593e-05</v>
       </c>
       <c r="K57" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58">
@@ -3158,7 +3158,7 @@
         <v>0.2491295645471589</v>
       </c>
       <c r="K58" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59">
@@ -3205,7 +3205,7 @@
         <v>9.966818162302734e-05</v>
       </c>
       <c r="K59" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -3252,7 +3252,7 @@
         <v>3.492984966299361e-05</v>
       </c>
       <c r="K60" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61">

--- a/output/boxplot_germany_historic_table.xlsx
+++ b/output/boxplot_germany_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>36.79</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
-        <v>74.36</v>
+        <v>102.96</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4947552447552447</v>
+        <v>0.4759129759129759</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>all</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>49</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
         <v>102.96</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4759129759129759</v>
+        <v>0.4720279720279721</v>
       </c>
       <c r="K4" t="n">
-        <v>194</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Ragwitz et al. (2023)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -644,12 +644,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Nachfragereduktion</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>total</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -666,22 +666,22 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>64.73</v>
       </c>
       <c r="I5" t="n">
         <v>102.96</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4720279720279721</v>
+        <v>0.6286907536907538</v>
       </c>
       <c r="K5" t="n">
-        <v>505</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ragwitz et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nachfragereduktion</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>64.73</v>
+        <v>68.39</v>
       </c>
       <c r="I6" t="n">
         <v>102.96</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6286907536907538</v>
+        <v>0.6642385392385393</v>
       </c>
       <c r="K6" t="n">
-        <v>415</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Climact (no year)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Level 4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -756,26 +756,26 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>68.39</v>
+        <v>0.25</v>
       </c>
       <c r="I7" t="n">
-        <v>102.96</v>
+        <v>0.48</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6642385392385393</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="K7" t="n">
-        <v>89</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -807,22 +807,22 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="I8" t="n">
         <v>0.48</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="K8" t="n">
-        <v>447</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -854,32 +854,32 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="I9" t="n">
         <v>0.48</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="K9" t="n">
-        <v>339</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -901,22 +901,22 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="I10" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="J10" t="n">
-        <v>0.71875</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="K10" t="n">
-        <v>342</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Climact (no year)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Level 4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="K11" t="n">
-        <v>525</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -995,22 +995,22 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.44</v>
+        <v>0.21</v>
       </c>
       <c r="I12" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="K12" t="n">
-        <v>119</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1042,32 +1042,32 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="I13" t="n">
         <v>0.41</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="K13" t="n">
-        <v>451</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I14" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="K14" t="n">
-        <v>337</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1132,20 +1132,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>13.9</v>
       </c>
       <c r="I15" t="n">
-        <v>0.41</v>
+        <v>29.12</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.4773351648351648</v>
       </c>
       <c r="K15" t="n">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1179,26 +1179,26 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.23</v>
+        <v>17.65</v>
       </c>
       <c r="I16" t="n">
-        <v>0.41</v>
+        <v>29.12</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.6061126373626373</v>
       </c>
       <c r="K16" t="n">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Ragwitz et al. (2023)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Nachfragereduktion</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1218,34 +1218,34 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.22</v>
+        <v>25.06</v>
       </c>
       <c r="I17" t="n">
-        <v>0.41</v>
+        <v>29.12</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.860576923076923</v>
       </c>
       <c r="K17" t="n">
-        <v>124</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1277,42 +1277,42 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>13.9</v>
+        <v>33.1</v>
       </c>
       <c r="I18" t="n">
         <v>29.12</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4773351648351648</v>
+        <v>1.136675824175824</v>
       </c>
       <c r="K18" t="n">
-        <v>304</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (no year)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Level 4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1320,26 +1320,26 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>12.9</v>
+        <v>2915</v>
       </c>
       <c r="I19" t="n">
-        <v>20.72</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6225868725868726</v>
+        <v>0.3502713250950479</v>
       </c>
       <c r="K19" t="n">
-        <v>306</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1367,26 +1367,26 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>17.65</v>
+        <v>8123.03</v>
       </c>
       <c r="I20" t="n">
-        <v>29.12</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6061126373626373</v>
+        <v>0.9760770092236112</v>
       </c>
       <c r="K20" t="n">
-        <v>507</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ragwitz et al. (2023)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1396,38 +1396,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nachfragereduktion</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>25.06</v>
+        <v>8718.200000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>29.12</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.860576923076923</v>
+        <v>1.047593642004681</v>
       </c>
       <c r="K21" t="n">
-        <v>414</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1461,20 +1461,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>33.1</v>
+        <v>8122.17</v>
       </c>
       <c r="I22" t="n">
-        <v>29.12</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>1.136675824175824</v>
+        <v>0.9759736701705815</v>
       </c>
       <c r="K22" t="n">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1508,20 +1508,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2915</v>
+        <v>1565.24</v>
       </c>
       <c r="I23" t="n">
-        <v>8322.120000000001</v>
+        <v>2177.88</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3502713250950479</v>
+        <v>0.718698918214043</v>
       </c>
       <c r="K23" t="n">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24">
@@ -1542,12 +1542,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1555,20 +1555,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8123.03</v>
+        <v>700.55</v>
       </c>
       <c r="I24" t="n">
-        <v>8322.120000000001</v>
+        <v>2177.88</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9760770092236112</v>
+        <v>0.3216660238396973</v>
       </c>
       <c r="K24" t="n">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1602,20 +1602,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8718.200000000001</v>
+        <v>1807.98</v>
       </c>
       <c r="I25" t="n">
-        <v>8322.120000000001</v>
+        <v>2177.88</v>
       </c>
       <c r="J25" t="n">
-        <v>1.047593642004681</v>
+        <v>0.8301559314562785</v>
       </c>
       <c r="K25" t="n">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1649,20 +1649,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8122.17</v>
+        <v>2681.43</v>
       </c>
       <c r="I26" t="n">
-        <v>8322.120000000001</v>
+        <v>2177.88</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9759736701705815</v>
+        <v>1.231211086010248</v>
       </c>
       <c r="K26" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1700,16 +1700,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1565.24</v>
+        <v>14831.74</v>
       </c>
       <c r="I27" t="n">
-        <v>2177.88</v>
+        <v>16412.26</v>
       </c>
       <c r="J27" t="n">
-        <v>0.718698918214043</v>
+        <v>0.9036988202721624</v>
       </c>
       <c r="K27" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>700.55</v>
+        <v>12301.43</v>
       </c>
       <c r="I28" t="n">
-        <v>2177.88</v>
+        <v>16412.26</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3216660238396973</v>
+        <v>0.7495268780777298</v>
       </c>
       <c r="K28" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1794,16 +1794,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1807.98</v>
+        <v>15186.03</v>
       </c>
       <c r="I29" t="n">
-        <v>2177.88</v>
+        <v>16412.26</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8301559314562785</v>
+        <v>0.9252857315202173</v>
       </c>
       <c r="K29" t="n">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2681.43</v>
+        <v>13337.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2177.88</v>
+        <v>16412.26</v>
       </c>
       <c r="J30" t="n">
-        <v>1.231211086010248</v>
+        <v>0.8126607791979898</v>
       </c>
       <c r="K30" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1888,22 +1888,22 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>14831.74</v>
+        <v>16019.03</v>
       </c>
       <c r="I31" t="n">
         <v>16412.26</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9036988202721624</v>
+        <v>0.9760404721835995</v>
       </c>
       <c r="K31" t="n">
-        <v>429</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (no year)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Level 4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1935,22 +1935,22 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>12301.43</v>
+        <v>7074</v>
       </c>
       <c r="I32" t="n">
-        <v>16412.26</v>
+        <v>11890.63</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7495268780777298</v>
+        <v>0.5949222202692372</v>
       </c>
       <c r="K32" t="n">
-        <v>313</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1960,17 +1960,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1982,22 +1982,22 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>15186.03</v>
+        <v>4391.76</v>
       </c>
       <c r="I33" t="n">
-        <v>16412.26</v>
+        <v>11890.63</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9252857315202173</v>
+        <v>0.3693462835863197</v>
       </c>
       <c r="K33" t="n">
-        <v>510</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2007,17 +2007,13 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
+          <t>based on LED</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2029,22 +2025,22 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>13337.6</v>
+        <v>8434.379999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>16412.26</v>
+        <v>11890.63</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8126607791979898</v>
+        <v>0.7093299513987064</v>
       </c>
       <c r="K34" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2054,17 +2050,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2076,22 +2072,22 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>16019.03</v>
+        <v>8852.49</v>
       </c>
       <c r="I35" t="n">
-        <v>16412.26</v>
+        <v>11890.63</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9760404721835995</v>
+        <v>0.7444929326705145</v>
       </c>
       <c r="K35" t="n">
-        <v>92</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2101,7 +2097,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2123,22 +2119,22 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7074</v>
+        <v>6731</v>
       </c>
       <c r="I36" t="n">
         <v>11890.63</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5949222202692372</v>
+        <v>0.5660759774713368</v>
       </c>
       <c r="K36" t="n">
-        <v>435</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (no year)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2148,17 +2144,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Level 4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2166,26 +2162,26 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m²/capita</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4391.76</v>
+        <v>36.22</v>
       </c>
       <c r="I37" t="n">
-        <v>11890.63</v>
+        <v>45.4</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3693462835863197</v>
+        <v>0.7977973568281939</v>
       </c>
       <c r="K37" t="n">
-        <v>314</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2195,13 +2191,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>based on LED</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>Life / Lever 4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2209,26 +2209,26 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8434.379999999999</v>
+        <v>37.07</v>
       </c>
       <c r="I38" t="n">
-        <v>11890.63</v>
+        <v>45.4</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7093299513987064</v>
+        <v>0.8165198237885463</v>
       </c>
       <c r="K38" t="n">
-        <v>82</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2238,17 +2238,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2256,26 +2256,26 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m^2/person</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8852.49</v>
+        <v>30</v>
       </c>
       <c r="I39" t="n">
-        <v>11890.63</v>
+        <v>45.4</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7444929326705145</v>
+        <v>0.6607929515418502</v>
       </c>
       <c r="K39" t="n">
-        <v>512</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2285,17 +2285,13 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
+          <t>based on LED</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2303,26 +2299,26 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6731</v>
+        <v>32</v>
       </c>
       <c r="I40" t="n">
-        <v>11890.63</v>
+        <v>45.4</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5660759774713368</v>
+        <v>0.7048458149779736</v>
       </c>
       <c r="K40" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2332,7 +2328,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2350,26 +2346,26 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>m²/capita</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>36.22</v>
+        <v>41.2</v>
       </c>
       <c r="I41" t="n">
         <v>45.4</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7977973568281939</v>
+        <v>0.907488986784141</v>
       </c>
       <c r="K41" t="n">
-        <v>423</v>
+        <v>508</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2379,7 +2375,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2397,26 +2393,26 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>37.07</v>
+        <v>41.17</v>
       </c>
       <c r="I42" t="n">
         <v>45.4</v>
       </c>
       <c r="J42" t="n">
-        <v>0.8165198237885463</v>
+        <v>0.9068281938325992</v>
       </c>
       <c r="K42" t="n">
-        <v>308</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Climact (no year)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2426,7 +2422,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Level 4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2436,7 +2432,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2444,26 +2440,26 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>m^2/person</t>
+          <t>m²/capita</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>45.4</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6607929515418502</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>196</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2473,13 +2469,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>based on LED</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>Life / Lever 4</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2487,26 +2487,26 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>32</v>
+        <v>20.22</v>
       </c>
       <c r="I44" t="n">
-        <v>45.4</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7048458149779736</v>
+        <v>5.055</v>
       </c>
       <c r="K44" t="n">
-        <v>83</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Climact (no year)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2516,17 +2516,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Level 4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>food waste per capita and year</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2534,26 +2534,26 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>kg/cap/year</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>41.2</v>
+        <v>2305.86</v>
       </c>
       <c r="I45" t="n">
-        <v>45.4</v>
+        <v>121490.25</v>
       </c>
       <c r="J45" t="n">
-        <v>0.907488986784141</v>
+        <v>0.01897979467488132</v>
       </c>
       <c r="K45" t="n">
-        <v>508</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2563,17 +2563,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>food waste per capita and year</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2581,26 +2581,26 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>kg/cap/year</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>41.17</v>
+        <v>18.73</v>
       </c>
       <c r="I46" t="n">
-        <v>45.4</v>
+        <v>187518.7</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9068281938325992</v>
+        <v>9.988337163173593e-05</v>
       </c>
       <c r="K46" t="n">
-        <v>114</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2610,17 +2610,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>food waste per capita and year</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2628,26 +2628,26 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>m²/capita</t>
+          <t>kg/cap/year</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>6.55</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>187518.7</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>3.492984966299361e-05</v>
       </c>
       <c r="K47" t="n">
-        <v>443</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2657,17 +2657,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>all</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>food waste per capita and year</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2675,26 +2675,26 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>kg/cap/year</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>20.22</v>
+        <v>55.63</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>187518.7</v>
       </c>
       <c r="J48" t="n">
-        <v>5.055</v>
+        <v>0.0002966637460690587</v>
       </c>
       <c r="K48" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2704,12 +2704,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Agriculture</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2722,584 +2722,20 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>g/cap/day</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>35.67</v>
+        <v>42.86</v>
       </c>
       <c r="I49" t="n">
-        <v>297.35</v>
+        <v>305.2</v>
       </c>
       <c r="J49" t="n">
-        <v>0.11995964351774</v>
+        <v>0.14043250327654</v>
       </c>
       <c r="K49" t="n">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>kcal/cap/day</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>84.14</v>
-      </c>
-      <c r="I50" t="n">
-        <v>305.2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.2756880733944954</v>
-      </c>
-      <c r="K50" t="n">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>DE path</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>kcal meat/cap/day</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>332.5</v>
-      </c>
-      <c r="I51" t="n">
-        <v>305.2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.089449541284404</v>
-      </c>
-      <c r="K51" t="n">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>g/cap/day</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="I52" t="n">
-        <v>305.2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.14043250327654</v>
-      </c>
-      <c r="K52" t="n">
         <v>127</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>kcal meat/cap/day</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>107.14</v>
-      </c>
-      <c r="I53" t="n">
-        <v>305.2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.3510484927916121</v>
-      </c>
-      <c r="K53" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Climact (no year)</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>kcal / year / cap</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>15793.55</v>
-      </c>
-      <c r="I54" t="n">
-        <v>121490.25</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.1299984978218417</v>
-      </c>
-      <c r="K54" t="n">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Climact (no year)</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>2305.86</v>
-      </c>
-      <c r="I55" t="n">
-        <v>121490.25</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.01897979467488132</v>
-      </c>
-      <c r="K55" t="n">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>kcal / year / cap</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>46825</v>
-      </c>
-      <c r="I56" t="n">
-        <v>187518.7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.2497084290793398</v>
-      </c>
-      <c r="K56" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="I57" t="n">
-        <v>187518.7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>9.988337163173593e-05</v>
-      </c>
-      <c r="K57" t="n">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>EU28+CH</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>kcal / year / cap</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>48742</v>
-      </c>
-      <c r="I58" t="n">
-        <v>195649.2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.2491295645471589</v>
-      </c>
-      <c r="K58" t="n">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>EU28+CH</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="I59" t="n">
-        <v>195649.2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>9.966818162302734e-05</v>
-      </c>
-      <c r="K59" t="n">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>DE path</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="I60" t="n">
-        <v>187518.7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.492984966299361e-05</v>
-      </c>
-      <c r="K60" t="n">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="I61" t="n">
-        <v>187518.7</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.0002966637460690587</v>
-      </c>
-      <c r="K61" t="n">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_germany_historic_table.xlsx
+++ b/output/boxplot_germany_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2541,10 +2541,10 @@
         <v>2305.86</v>
       </c>
       <c r="I45" t="n">
-        <v>121490.25</v>
+        <v>17737.58</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01897979467488132</v>
+        <v>0.1299985680120963</v>
       </c>
       <c r="K45" t="n">
         <v>457</v>
@@ -2588,10 +2588,10 @@
         <v>18.73</v>
       </c>
       <c r="I46" t="n">
-        <v>187518.7</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>9.988337163173593e-05</v>
+        <v>0.2497000399946674</v>
       </c>
       <c r="K46" t="n">
         <v>321</v>
@@ -2635,10 +2635,10 @@
         <v>6.55</v>
       </c>
       <c r="I47" t="n">
-        <v>187518.7</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>3.492984966299361e-05</v>
+        <v>0.08732169044127448</v>
       </c>
       <c r="K47" t="n">
         <v>521</v>
@@ -2682,60 +2682,13 @@
         <v>55.63</v>
       </c>
       <c r="I48" t="n">
-        <v>187518.7</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0002966637460690587</v>
+        <v>0.7416344487401679</v>
       </c>
       <c r="K48" t="n">
         <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>g/cap/day</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="I49" t="n">
-        <v>305.2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.14043250327654</v>
-      </c>
-      <c r="K49" t="n">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_germany_historic_table.xlsx
+++ b/output/boxplot_germany_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>41.02</v>
+        <v>49</v>
       </c>
       <c r="I2" t="n">
         <v>102.96</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3984071484071485</v>
+        <v>0.4759129759129759</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>48.6</v>
       </c>
       <c r="I3" t="n">
         <v>102.96</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4759129759129759</v>
+        <v>0.4720279720279721</v>
       </c>
       <c r="K3" t="n">
-        <v>194</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>68.39</v>
       </c>
       <c r="I4" t="n">
         <v>102.96</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4720279720279721</v>
+        <v>0.6642385392385393</v>
       </c>
       <c r="K4" t="n">
-        <v>505</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ragwitz et al. (2023)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -644,21 +644,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nachfragereduktion</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -666,16 +666,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>64.73</v>
+        <v>17.65</v>
       </c>
       <c r="I5" t="n">
-        <v>102.96</v>
+        <v>29.12</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6286907536907538</v>
+        <v>0.6061126373626373</v>
       </c>
       <c r="K5" t="n">
-        <v>415</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6">
@@ -696,12 +696,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>68.39</v>
+        <v>33.1</v>
       </c>
       <c r="I6" t="n">
-        <v>102.96</v>
+        <v>29.12</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6642385392385393</v>
+        <v>1.136675824175824</v>
       </c>
       <c r="K6" t="n">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="I7" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="K7" t="n">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -807,16 +807,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="I8" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="K8" t="n">
-        <v>339</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -863,7 +863,7 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="K9" t="n">
-        <v>525</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10">
@@ -910,13 +910,13 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="K10" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -926,17 +926,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -944,26 +944,26 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.2</v>
+        <v>8718.200000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.41</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4878048780487805</v>
+        <v>1.047593642004681</v>
       </c>
       <c r="K11" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -973,17 +973,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -991,26 +991,26 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.21</v>
+        <v>8122.17</v>
       </c>
       <c r="I12" t="n">
-        <v>0.41</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.9759736701705815</v>
       </c>
       <c r="K12" t="n">
-        <v>343</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1038,26 +1038,26 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.23</v>
+        <v>8434.379999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.41</v>
+        <v>11890.63</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.7093299513987064</v>
       </c>
       <c r="K13" t="n">
-        <v>523</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1067,17 +1067,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1085,26 +1085,26 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.22</v>
+        <v>8852.49</v>
       </c>
       <c r="I14" t="n">
-        <v>0.41</v>
+        <v>11890.63</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.7444929326705145</v>
       </c>
       <c r="K14" t="n">
-        <v>124</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1114,17 +1114,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1132,20 +1132,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>13.9</v>
+        <v>6731</v>
       </c>
       <c r="I15" t="n">
-        <v>29.12</v>
+        <v>11890.63</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4773351648351648</v>
+        <v>0.5660759774713368</v>
       </c>
       <c r="K15" t="n">
-        <v>304</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1179,26 +1179,26 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>17.65</v>
+        <v>15186.03</v>
       </c>
       <c r="I16" t="n">
-        <v>29.12</v>
+        <v>16412.26</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6061126373626373</v>
+        <v>0.9252857315202173</v>
       </c>
       <c r="K16" t="n">
-        <v>507</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ragwitz et al. (2023)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1208,38 +1208,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nachfragereduktion</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>25.06</v>
+        <v>13860.6</v>
       </c>
       <c r="I17" t="n">
-        <v>29.12</v>
+        <v>16412.26</v>
       </c>
       <c r="J17" t="n">
-        <v>0.860576923076923</v>
+        <v>0.8445272010070521</v>
       </c>
       <c r="K17" t="n">
-        <v>414</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1273,26 +1273,26 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>33.1</v>
+        <v>13337.6</v>
       </c>
       <c r="I18" t="n">
-        <v>29.12</v>
+        <v>16412.26</v>
       </c>
       <c r="J18" t="n">
-        <v>1.136675824175824</v>
+        <v>0.8126607791979898</v>
       </c>
       <c r="K18" t="n">
-        <v>139</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1302,17 +1302,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1320,26 +1320,26 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2915</v>
+        <v>16019.03</v>
       </c>
       <c r="I19" t="n">
-        <v>8322.120000000001</v>
+        <v>16412.26</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3502713250950479</v>
+        <v>0.9760404721835995</v>
       </c>
       <c r="K19" t="n">
-        <v>439</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1367,20 +1367,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8123.03</v>
+        <v>1807.98</v>
       </c>
       <c r="I20" t="n">
-        <v>8322.120000000001</v>
+        <v>2177.88</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9760770092236112</v>
+        <v>0.8301559314562785</v>
       </c>
       <c r="K20" t="n">
-        <v>328</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1414,20 +1414,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8718.200000000001</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8322.120000000001</v>
+        <v>2177.88</v>
       </c>
       <c r="J21" t="n">
-        <v>1.047593642004681</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>517</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1461,26 +1461,26 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8122.17</v>
+        <v>2681.43</v>
       </c>
       <c r="I22" t="n">
-        <v>8322.120000000001</v>
+        <v>2177.88</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9759736701705815</v>
+        <v>1.231211086010248</v>
       </c>
       <c r="K22" t="n">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1490,17 +1490,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1508,26 +1508,26 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1565.24</v>
+        <v>30</v>
       </c>
       <c r="I23" t="n">
-        <v>2177.88</v>
+        <v>45.4</v>
       </c>
       <c r="J23" t="n">
-        <v>0.718698918214043</v>
+        <v>0.6607929515418502</v>
       </c>
       <c r="K23" t="n">
-        <v>427</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1537,17 +1537,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1555,20 +1555,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>700.55</v>
+        <v>32</v>
       </c>
       <c r="I24" t="n">
-        <v>2177.88</v>
+        <v>45.4</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3216660238396973</v>
+        <v>0.7048458149779736</v>
       </c>
       <c r="K24" t="n">
-        <v>316</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1602,20 +1602,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1807.98</v>
+        <v>41.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2177.88</v>
+        <v>45.4</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8301559314562785</v>
+        <v>0.907488986784141</v>
       </c>
       <c r="K25" t="n">
-        <v>514</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1649,1046 +1649,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2681.43</v>
+        <v>41.17</v>
       </c>
       <c r="I26" t="n">
-        <v>2177.88</v>
+        <v>45.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.231211086010248</v>
+        <v>0.9068281938325992</v>
       </c>
       <c r="K26" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Climact (no year)</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>average distance travelled per capita and year</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>pkm/cap/year</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>14831.74</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16412.26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.9036988202721624</v>
-      </c>
-      <c r="K27" t="n">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>average distance travelled per capita and year</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>pkm/cap/year</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>12301.43</v>
-      </c>
-      <c r="I28" t="n">
-        <v>16412.26</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.7495268780777298</v>
-      </c>
-      <c r="K28" t="n">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>DE path</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Transport</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>average distance travelled per capita and year</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>pkm/cap/year</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>15186.03</v>
-      </c>
-      <c r="I29" t="n">
-        <v>16412.26</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.9252857315202173</v>
-      </c>
-      <c r="K29" t="n">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>average distance travelled per capita and year</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>pkm/cap/year</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>13337.6</v>
-      </c>
-      <c r="I30" t="n">
-        <v>16412.26</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8126607791979898</v>
-      </c>
-      <c r="K30" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>average distance travelled per capita and year</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>pkm/cap/year</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>16019.03</v>
-      </c>
-      <c r="I31" t="n">
-        <v>16412.26</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.9760404721835995</v>
-      </c>
-      <c r="K31" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Climact (no year)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>average distance travelled per capita and year | car</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>pkm/cap/year</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7074</v>
-      </c>
-      <c r="I32" t="n">
-        <v>11890.63</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5949222202692372</v>
-      </c>
-      <c r="K32" t="n">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>average distance travelled per capita and year | car</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>pkm/cap/year</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4391.76</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11890.63</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.3693462835863197</v>
-      </c>
-      <c r="K33" t="n">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Fishman et al. (2021)</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>based on LED</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>average distance travelled per capita and year | car</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>pkm/cap/year</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8434.379999999999</v>
-      </c>
-      <c r="I34" t="n">
-        <v>11890.63</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7093299513987064</v>
-      </c>
-      <c r="K34" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>DE path</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Transport</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>average distance travelled per capita and year | car</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>pkm/cap/year</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8852.49</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11890.63</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7444929326705145</v>
-      </c>
-      <c r="K35" t="n">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>average distance travelled per capita and year | car</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>pkm/cap/year</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6731</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11890.63</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5660759774713368</v>
-      </c>
-      <c r="K36" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Climact (no year)</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>m²/capita</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>36.22</v>
-      </c>
-      <c r="I37" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.7977973568281939</v>
-      </c>
-      <c r="K37" t="n">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>m²/cap</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>37.07</v>
-      </c>
-      <c r="I38" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.8165198237885463</v>
-      </c>
-      <c r="K38" t="n">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Eerma et al. (2022)</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>High Ambition</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>m^2/person</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>30</v>
-      </c>
-      <c r="I39" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6607929515418502</v>
-      </c>
-      <c r="K39" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Fishman et al. (2021)</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>based on LED</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>m2/cap</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>32</v>
-      </c>
-      <c r="I40" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.7048458149779736</v>
-      </c>
-      <c r="K40" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>DE path</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>m²/cap</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.907488986784141</v>
-      </c>
-      <c r="K41" t="n">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>m2/cap</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>41.17</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.9068281938325992</v>
-      </c>
-      <c r="K42" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Climact (no year)</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>per capita floor area in commercial and public buildings</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>m²/capita</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>per capita floor area in commercial and public buildings</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>m²/cap</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.055</v>
-      </c>
-      <c r="K44" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Climact (no year)</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2305.86</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17737.58</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.1299985680120963</v>
-      </c>
-      <c r="K45" t="n">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="I46" t="n">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.2497000399946674</v>
-      </c>
-      <c r="K46" t="n">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>DE path</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="I47" t="n">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.08732169044127448</v>
-      </c>
-      <c r="K47" t="n">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.7416344487401679</v>
-      </c>
-      <c r="K48" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_germany_historic_table.xlsx
+++ b/output/boxplot_germany_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>49</v>
+        <v>41.02</v>
       </c>
       <c r="I2" t="n">
         <v>102.96</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4759129759129759</v>
+        <v>0.3984071484071485</v>
       </c>
       <c r="K2" t="n">
-        <v>192</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>48.6</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
         <v>102.96</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4720279720279721</v>
+        <v>0.4759129759129759</v>
       </c>
       <c r="K3" t="n">
-        <v>435</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>68.39</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
         <v>102.96</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6642385392385393</v>
+        <v>0.4720279720279721</v>
       </c>
       <c r="K4" t="n">
-        <v>85</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -666,22 +666,22 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>17.65</v>
+        <v>13.9</v>
       </c>
       <c r="I5" t="n">
         <v>29.12</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6061126373626373</v>
+        <v>0.4773351648351648</v>
       </c>
       <c r="K5" t="n">
-        <v>437</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>33.1</v>
+        <v>17.65</v>
       </c>
       <c r="I6" t="n">
         <v>29.12</v>
       </c>
       <c r="J6" t="n">
-        <v>1.136675824175824</v>
+        <v>0.6061126373626373</v>
       </c>
       <c r="K6" t="n">
-        <v>135</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -756,26 +756,26 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.23</v>
+        <v>18.78</v>
       </c>
       <c r="I7" t="n">
-        <v>0.41</v>
+        <v>29.12</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.6449175824175825</v>
       </c>
       <c r="K7" t="n">
-        <v>456</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -807,16 +807,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I8" t="n">
         <v>0.41</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="K8" t="n">
-        <v>120</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9">
@@ -842,7 +842,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -854,22 +854,22 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.44</v>
+        <v>0.23</v>
       </c>
       <c r="I9" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="K9" t="n">
-        <v>458</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -901,16 +901,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I10" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="K10" t="n">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
@@ -931,12 +931,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -944,26 +944,26 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8718.200000000001</v>
+        <v>0.44</v>
       </c>
       <c r="I11" t="n">
-        <v>8322.120000000001</v>
+        <v>0.48</v>
       </c>
       <c r="J11" t="n">
-        <v>1.047593642004681</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="K11" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -978,12 +978,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -991,26 +991,26 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8122.17</v>
+        <v>0.44</v>
       </c>
       <c r="I12" t="n">
-        <v>8322.120000000001</v>
+        <v>0.48</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9759736701705815</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="K12" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1038,26 +1038,26 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8434.379999999999</v>
+        <v>8718.200000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>11890.63</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7093299513987064</v>
+        <v>1.047593642004681</v>
       </c>
       <c r="K13" t="n">
-        <v>78</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1067,17 +1067,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1085,26 +1085,26 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8852.49</v>
+        <v>8122.17</v>
       </c>
       <c r="I14" t="n">
-        <v>11890.63</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7444929326705145</v>
+        <v>0.9759736701705815</v>
       </c>
       <c r="K14" t="n">
-        <v>444</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6731</v>
+        <v>5527.08</v>
       </c>
       <c r="I15" t="n">
         <v>11890.63</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5660759774713368</v>
+        <v>0.4648265062490382</v>
       </c>
       <c r="K15" t="n">
-        <v>94</v>
+        <v>816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1183,22 +1183,22 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>15186.03</v>
+        <v>4391.76</v>
       </c>
       <c r="I16" t="n">
-        <v>16412.26</v>
+        <v>11890.63</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9252857315202173</v>
+        <v>0.3693462835863197</v>
       </c>
       <c r="K16" t="n">
-        <v>441</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1230,22 +1230,22 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>13860.6</v>
+        <v>8434.379999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>16412.26</v>
+        <v>11890.63</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8445272010070521</v>
+        <v>0.7093299513987064</v>
       </c>
       <c r="K17" t="n">
-        <v>442</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>13337.6</v>
+        <v>8852.49</v>
       </c>
       <c r="I18" t="n">
-        <v>16412.26</v>
+        <v>11890.63</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8126607791979898</v>
+        <v>0.7444929326705145</v>
       </c>
       <c r="K18" t="n">
-        <v>87</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>16019.03</v>
+        <v>6731</v>
       </c>
       <c r="I19" t="n">
-        <v>16412.26</v>
+        <v>11890.63</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9760404721835995</v>
+        <v>0.5660759774713368</v>
       </c>
       <c r="K19" t="n">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1371,16 +1371,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1807.98</v>
+        <v>12465.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2177.88</v>
+        <v>16412.26</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8301559314562785</v>
+        <v>0.7595114871443664</v>
       </c>
       <c r="K20" t="n">
-        <v>446</v>
+        <v>833</v>
       </c>
     </row>
     <row r="21">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1418,22 +1418,22 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>15186.03</v>
       </c>
       <c r="I21" t="n">
-        <v>2177.88</v>
+        <v>16412.26</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.9252857315202173</v>
       </c>
       <c r="K21" t="n">
-        <v>447</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2681.43</v>
+        <v>13860.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2177.88</v>
+        <v>16412.26</v>
       </c>
       <c r="J22" t="n">
-        <v>1.231211086010248</v>
+        <v>0.8445272010070521</v>
       </c>
       <c r="K22" t="n">
-        <v>101</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1490,17 +1490,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1508,26 +1508,26 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>30</v>
+        <v>700.55</v>
       </c>
       <c r="I23" t="n">
-        <v>45.4</v>
+        <v>2177.88</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6607929515418502</v>
+        <v>0.3216660238396973</v>
       </c>
       <c r="K23" t="n">
-        <v>194</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1555,26 +1555,26 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>32</v>
+        <v>37.07</v>
       </c>
       <c r="I24" t="n">
         <v>45.4</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7048458149779736</v>
+        <v>0.8165198237885463</v>
       </c>
       <c r="K24" t="n">
-        <v>79</v>
+        <v>831</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>41.2</v>
+        <v>30</v>
       </c>
       <c r="I25" t="n">
         <v>45.4</v>
       </c>
       <c r="J25" t="n">
-        <v>0.907488986784141</v>
+        <v>0.6607929515418502</v>
       </c>
       <c r="K25" t="n">
-        <v>438</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1653,16 +1653,298 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>41.17</v>
+        <v>32</v>
       </c>
       <c r="I26" t="n">
         <v>45.4</v>
       </c>
       <c r="J26" t="n">
+        <v>0.7048458149779736</v>
+      </c>
+      <c r="K26" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DE path</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>m²/cap</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.907488986784141</v>
+      </c>
+      <c r="K27" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>m2/cap</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>41.17</v>
+      </c>
+      <c r="I28" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.9068281938325992</v>
       </c>
-      <c r="K26" t="n">
-        <v>110</v>
+      <c r="K28" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Costa et al. (2021) / EUCalc</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Life / Lever 4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>per capita floor area in commercial and public buildings</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>m²/cap</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9829849295089936</v>
+      </c>
+      <c r="K29" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DE path</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>131</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>131</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>kg/cap/day</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I32" t="n">
+        <v>325</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0001230769230769231</v>
+      </c>
+      <c r="K32" t="n">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_germany_historic_table.xlsx
+++ b/output/boxplot_germany_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +534,7 @@
         <v>0.3984071484071485</v>
       </c>
       <c r="K2" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>0.4720279720279721</v>
       </c>
       <c r="K4" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>0.4773351648351648</v>
       </c>
       <c r="K5" t="n">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6">
@@ -722,7 +722,7 @@
         <v>0.6061126373626373</v>
       </c>
       <c r="K6" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7">
@@ -816,7 +816,7 @@
         <v>0.5121951219512195</v>
       </c>
       <c r="K8" t="n">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9">
@@ -863,7 +863,7 @@
         <v>0.5609756097560976</v>
       </c>
       <c r="K9" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="K11" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12">
@@ -1051,7 +1051,7 @@
         <v>1.047593642004681</v>
       </c>
       <c r="K13" t="n">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14">
@@ -1145,7 +1145,7 @@
         <v>0.4648265062490382</v>
       </c>
       <c r="K15" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16">
@@ -1192,7 +1192,7 @@
         <v>0.3693462835863197</v>
       </c>
       <c r="K16" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="17">
@@ -1286,7 +1286,7 @@
         <v>0.7444929326705145</v>
       </c>
       <c r="K18" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19">
@@ -1380,7 +1380,7 @@
         <v>0.7595114871443664</v>
       </c>
       <c r="K20" t="n">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="21">
@@ -1427,7 +1427,7 @@
         <v>0.9252857315202173</v>
       </c>
       <c r="K21" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22">
@@ -1474,7 +1474,7 @@
         <v>0.8445272010070521</v>
       </c>
       <c r="K22" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23">
@@ -1521,13 +1521,13 @@
         <v>0.3216660238396973</v>
       </c>
       <c r="K23" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1537,17 +1537,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1555,26 +1555,26 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>37.07</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>45.4</v>
+        <v>645.48</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8165198237885463</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>831</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1602,26 +1602,26 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>30</v>
+        <v>2681.43</v>
       </c>
       <c r="I25" t="n">
-        <v>45.4</v>
+        <v>2809.29</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6607929515418502</v>
+        <v>0.9544867208440566</v>
       </c>
       <c r="K25" t="n">
-        <v>232</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1649,26 +1649,26 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>32</v>
+        <v>37.07</v>
       </c>
       <c r="I26" t="n">
         <v>45.4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7048458149779736</v>
+        <v>0.8165198237885463</v>
       </c>
       <c r="K26" t="n">
-        <v>96</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1700,22 +1700,22 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>41.2</v>
+        <v>30</v>
       </c>
       <c r="I27" t="n">
         <v>45.4</v>
       </c>
       <c r="J27" t="n">
-        <v>0.907488986784141</v>
+        <v>0.6607929515418502</v>
       </c>
       <c r="K27" t="n">
-        <v>490</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>41.17</v>
+        <v>32</v>
       </c>
       <c r="I28" t="n">
         <v>45.4</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9068281938325992</v>
+        <v>0.7048458149779736</v>
       </c>
       <c r="K28" t="n">
-        <v>139</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1794,22 +1794,22 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>20.22</v>
+        <v>41.2</v>
       </c>
       <c r="I29" t="n">
-        <v>20.57</v>
+        <v>45.4</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9829849295089936</v>
+        <v>0.907488986784141</v>
       </c>
       <c r="K29" t="n">
-        <v>832</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1819,17 +1819,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1837,26 +1837,26 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>65.5</v>
+        <v>41.17</v>
       </c>
       <c r="I30" t="n">
-        <v>131</v>
+        <v>45.4</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5</v>
+        <v>0.9068281938325992</v>
       </c>
       <c r="K30" t="n">
-        <v>506</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1866,17 +1866,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1884,66 +1884,160 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>65.5</v>
+        <v>20.22</v>
       </c>
       <c r="I31" t="n">
-        <v>131</v>
+        <v>20.57</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5</v>
+        <v>0.9829849295089936</v>
       </c>
       <c r="K31" t="n">
-        <v>151</v>
+        <v>833</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DE path</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>131</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>UBA (2021)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>GreenSupreme</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>131</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>meat consumption per capita and day</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="F34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>kg/cap/day</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H34" t="n">
         <v>0.04</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I34" t="n">
         <v>325</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J34" t="n">
         <v>0.0001230769230769231</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K34" t="n">
         <v>153</v>
       </c>
     </row>

--- a/output/boxplot_germany_historic_table.xlsx
+++ b/output/boxplot_germany_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,10 +528,10 @@
         <v>41.02</v>
       </c>
       <c r="I2" t="n">
-        <v>102.96</v>
+        <v>92.44</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3984071484071485</v>
+        <v>0.443747295543055</v>
       </c>
       <c r="K2" t="n">
         <v>830</v>
@@ -634,7 +634,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -644,17 +644,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -666,22 +666,22 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>13.9</v>
+        <v>54.07</v>
       </c>
       <c r="I5" t="n">
-        <v>29.12</v>
+        <v>102.96</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4773351648351648</v>
+        <v>0.5251554001554002</v>
       </c>
       <c r="K5" t="n">
-        <v>831</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17.65</v>
+        <v>13.9</v>
       </c>
       <c r="I6" t="n">
         <v>29.12</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6061126373626373</v>
+        <v>0.4773351648351648</v>
       </c>
       <c r="K6" t="n">
-        <v>488</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>18.78</v>
+        <v>17.65</v>
       </c>
       <c r="I7" t="n">
         <v>29.12</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6449175824175825</v>
+        <v>0.6061126373626373</v>
       </c>
       <c r="K7" t="n">
-        <v>169</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -803,26 +803,26 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.21</v>
+        <v>18.78</v>
       </c>
       <c r="I8" t="n">
-        <v>0.41</v>
+        <v>31.36</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.5988520408163266</v>
       </c>
       <c r="K8" t="n">
-        <v>840</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -854,22 +854,22 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
         <v>0.41</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="K9" t="n">
-        <v>507</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -901,22 +901,22 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I10" t="n">
         <v>0.41</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="K10" t="n">
-        <v>149</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I11" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="K11" t="n">
-        <v>509</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1004,13 +1004,13 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="K12" t="n">
-        <v>144</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1038,26 +1038,26 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8718.200000000001</v>
+        <v>0.44</v>
       </c>
       <c r="I13" t="n">
-        <v>8322.120000000001</v>
+        <v>0.48</v>
       </c>
       <c r="J13" t="n">
-        <v>1.047593642004681</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="K13" t="n">
-        <v>501</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1089,22 +1089,22 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8122.17</v>
+        <v>8718.200000000001</v>
       </c>
       <c r="I14" t="n">
         <v>8322.120000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9759736701705815</v>
+        <v>1.047593642004681</v>
       </c>
       <c r="K14" t="n">
-        <v>158</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1114,17 +1114,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1132,26 +1132,26 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5527.08</v>
+        <v>8122.17</v>
       </c>
       <c r="I15" t="n">
-        <v>11890.63</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4648265062490382</v>
+        <v>0.9759736701705815</v>
       </c>
       <c r="K15" t="n">
-        <v>817</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1183,22 +1183,22 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4391.76</v>
+        <v>5527.08</v>
       </c>
       <c r="I16" t="n">
         <v>11890.63</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3693462835863197</v>
+        <v>0.4648265062490382</v>
       </c>
       <c r="K16" t="n">
-        <v>835</v>
+        <v>817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1230,22 +1230,22 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8434.379999999999</v>
+        <v>4391.76</v>
       </c>
       <c r="I17" t="n">
         <v>11890.63</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7093299513987064</v>
+        <v>0.3693462835863197</v>
       </c>
       <c r="K17" t="n">
-        <v>95</v>
+        <v>835</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8852.49</v>
+        <v>8434.379999999999</v>
       </c>
       <c r="I18" t="n">
         <v>11890.63</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7444929326705145</v>
+        <v>0.7093299513987064</v>
       </c>
       <c r="K18" t="n">
-        <v>495</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6731</v>
+        <v>8852.49</v>
       </c>
       <c r="I19" t="n">
         <v>11890.63</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5660759774713368</v>
+        <v>0.7444929326705145</v>
       </c>
       <c r="K19" t="n">
-        <v>117</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1371,22 +1371,22 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>12465.3</v>
+        <v>6731</v>
       </c>
       <c r="I20" t="n">
-        <v>16412.26</v>
+        <v>11890.63</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7595114871443664</v>
+        <v>0.5660759774713368</v>
       </c>
       <c r="K20" t="n">
-        <v>834</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1418,16 +1418,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>15186.03</v>
+        <v>12465.3</v>
       </c>
       <c r="I21" t="n">
         <v>16412.26</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9252857315202173</v>
+        <v>0.7595114871443664</v>
       </c>
       <c r="K21" t="n">
-        <v>492</v>
+        <v>834</v>
       </c>
     </row>
     <row r="22">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>13860.6</v>
+        <v>15186.03</v>
       </c>
       <c r="I22" t="n">
         <v>16412.26</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8445272010070521</v>
+        <v>0.9252857315202173</v>
       </c>
       <c r="K22" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>700.55</v>
+        <v>13860.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2177.88</v>
+        <v>16412.26</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3216660238396973</v>
+        <v>0.8445272010070521</v>
       </c>
       <c r="K23" t="n">
-        <v>836</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>700.55</v>
       </c>
       <c r="I24" t="n">
-        <v>645.48</v>
+        <v>2177.88</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.3216660238396973</v>
       </c>
       <c r="K24" t="n">
-        <v>123</v>
+        <v>836</v>
       </c>
     </row>
     <row r="25">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2681.43</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2809.29</v>
+        <v>645.48</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9544867208440566</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1631,17 +1631,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1649,26 +1649,26 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>37.07</v>
+        <v>2681.43</v>
       </c>
       <c r="I26" t="n">
-        <v>45.4</v>
+        <v>2809.29</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8165198237885463</v>
+        <v>0.9544867208440566</v>
       </c>
       <c r="K26" t="n">
-        <v>832</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1700,22 +1700,22 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>30</v>
+        <v>37.07</v>
       </c>
       <c r="I27" t="n">
         <v>45.4</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6607929515418502</v>
+        <v>0.8165198237885463</v>
       </c>
       <c r="K27" t="n">
-        <v>232</v>
+        <v>832</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1743,26 +1743,26 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I28" t="n">
         <v>45.4</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7048458149779736</v>
+        <v>0.6607929515418502</v>
       </c>
       <c r="K28" t="n">
-        <v>96</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1790,26 +1790,26 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>41.2</v>
+        <v>32</v>
       </c>
       <c r="I29" t="n">
         <v>45.4</v>
       </c>
       <c r="J29" t="n">
-        <v>0.907488986784141</v>
+        <v>0.7048458149779736</v>
       </c>
       <c r="K29" t="n">
-        <v>489</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1837,26 +1837,26 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>41.17</v>
+        <v>41.2</v>
       </c>
       <c r="I30" t="n">
         <v>45.4</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9068281938325992</v>
+        <v>0.907488986784141</v>
       </c>
       <c r="K30" t="n">
-        <v>139</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1884,26 +1884,26 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>20.22</v>
+        <v>41.17</v>
       </c>
       <c r="I31" t="n">
-        <v>20.57</v>
+        <v>45.4</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9829849295089936</v>
+        <v>0.9068281938325992</v>
       </c>
       <c r="K31" t="n">
-        <v>833</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1931,26 +1931,26 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>65.5</v>
+        <v>20.22</v>
       </c>
       <c r="I32" t="n">
-        <v>131</v>
+        <v>20.57</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5</v>
+        <v>0.9829849295089936</v>
       </c>
       <c r="K32" t="n">
-        <v>505</v>
+        <v>833</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1991,7 +1991,7 @@
         <v>0.5</v>
       </c>
       <c r="K33" t="n">
-        <v>151</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34">
@@ -2017,27 +2017,74 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>131</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>meat consumption per capita and day</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="F35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>kg/cap/day</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>0.04</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>325</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J35" t="n">
         <v>0.0001230769230769231</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>153</v>
       </c>
     </row>
